--- a/admin/file.xlsx
+++ b/admin/file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Misc</t>
   </si>
   <si>
-    <t>Code string</t>
+    <t>Code</t>
   </si>
   <si>
     <t>ObjectID("5d62d94e6531335140af5d40")</t>
@@ -228,10 +228,19 @@
     <t>dhgf</t>
   </si>
   <si>
-    <t>345</t>
+    <t>65</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>54</t>
   </si>
   <si>
     <t>45</t>
+  </si>
+  <si>
+    <t>56</t>
   </si>
 </sst>
 </file>
@@ -985,15 +994,17 @@
         <v>70</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="1" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/admin/file.xlsx
+++ b/admin/file.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -84,76 +84,70 @@
     <t>Code</t>
   </si>
   <si>
-    <t>ObjectID("5d7123d16531339f3b4b1dbb")</t>
-  </si>
-  <si>
-    <t>lkxc</t>
-  </si>
-  <si>
-    <t>aljsklv</t>
-  </si>
-  <si>
-    <t>lkjsd</t>
-  </si>
-  <si>
-    <t>aries.ajay1@outlook.com</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>ldzkjv</t>
-  </si>
-  <si>
-    <t>lkdmv</t>
+    <t>ObjectID("5d641f8a6531338f3a78b5ae")</t>
+  </si>
+  <si>
+    <t>uihgaesj</t>
+  </si>
+  <si>
+    <t>fsdh</t>
+  </si>
+  <si>
+    <t>7896</t>
+  </si>
+  <si>
+    <t>dgfh</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>dhgf</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>ObjectID("5d7122096531339f3b4b1dba")</t>
+  </si>
+  <si>
+    <t>lwehf</t>
+  </si>
+  <si>
+    <t>sdlkfj</t>
+  </si>
+  <si>
+    <t>s/lkvnc</t>
+  </si>
+  <si>
+    <t>anshulgoel151999@gmail.com</t>
+  </si>
+  <si>
+    <t>sdlkv</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>zjdvm</t>
-  </si>
-  <si>
-    <t>dlkvm</t>
-  </si>
-  <si>
-    <t>lkdvd</t>
-  </si>
-  <si>
-    <t>ObjectID("5d7285bb6531332e1ed3ae14")</t>
-  </si>
-  <si>
-    <t>hjrfjyg</t>
-  </si>
-  <si>
-    <t>ujktgh</t>
-  </si>
-  <si>
-    <t>gf</t>
-  </si>
-  <si>
-    <t>Aniruddha.verma@cashpositive.in</t>
-  </si>
-  <si>
-    <t>jukg</t>
-  </si>
-  <si>
-    <t>ObjectID("5d72870e653133b6205daecb")</t>
-  </si>
-  <si>
-    <t>Anshul</t>
-  </si>
-  <si>
-    <t>juyhf</t>
-  </si>
-  <si>
-    <t>gjkh</t>
-  </si>
-  <si>
-    <t>manantechnosurge@gmail.com</t>
-  </si>
-  <si>
-    <t>vjh</t>
+    <t>sd/lkj</t>
   </si>
 </sst>
 </file>
@@ -523,7 +517,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -649,54 +643,60 @@
       <c r="G2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="1" t="s"/>
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="I2" s="1" t="s"/>
       <c r="J2" s="1" t="s"/>
       <c r="K2" s="1" t="s"/>
       <c r="L2" s="1" t="s"/>
       <c r="M2" s="1" t="s"/>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="N2" s="1" t="s"/>
       <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s"/>
+      <c r="R2" s="1" t="s"/>
+      <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s"/>
-      <c r="T2" s="1" t="s"/>
-      <c r="U2" s="1" t="s"/>
-      <c r="V2" s="1" t="s"/>
-      <c r="W2" s="1" t="s"/>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H3" s="1" t="s"/>
       <c r="I3" s="1" t="s"/>
@@ -706,9 +706,11 @@
       <c r="M3" s="1" t="s"/>
       <c r="N3" s="1" t="s"/>
       <c r="O3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="1" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="Q3" s="1" t="s"/>
       <c r="R3" s="1" t="s"/>
       <c r="S3" s="1" t="s"/>
@@ -716,47 +718,6 @@
       <c r="U3" s="1" t="s"/>
       <c r="V3" s="1" t="s"/>
       <c r="W3" s="1" t="s"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="1" t="s"/>
-      <c r="I4" s="1" t="s"/>
-      <c r="J4" s="1" t="s"/>
-      <c r="K4" s="1" t="s"/>
-      <c r="L4" s="1" t="s"/>
-      <c r="M4" s="1" t="s"/>
-      <c r="N4" s="1" t="s"/>
-      <c r="O4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" s="1" t="s"/>
-      <c r="Q4" s="1" t="s"/>
-      <c r="R4" s="1" t="s"/>
-      <c r="S4" s="1" t="s"/>
-      <c r="T4" s="1" t="s"/>
-      <c r="U4" s="1" t="s"/>
-      <c r="V4" s="1" t="s"/>
-      <c r="W4" s="1" t="s"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
